--- a/FINAL XCat16_for Jake.xlsx
+++ b/FINAL XCat16_for Jake.xlsx
@@ -3909,7 +3909,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -4052,8 +4052,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -4363,10 +4363,10 @@
   <dimension ref="A1:AO191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4381,7 +4381,7 @@
     <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="60.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="22" customWidth="1"/>
     <col min="12" max="12" width="56.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37.7109375" style="3" customWidth="1"/>
     <col min="14" max="14" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
